--- a/doc/task07/scrum_team_blue.xlsx
+++ b/doc/task07/scrum_team_blue.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Luca\10_gitRepo\blue\doc\task07\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE0FC5A5-47F5-4EA3-AC01-ED69FAD4655B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="23235" windowHeight="12555" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
@@ -18,7 +17,7 @@
     <sheet name="Sprint Backlog" sheetId="2" r:id="rId3"/>
     <sheet name="BurndownChart" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -345,7 +344,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -509,23 +508,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -561,23 +543,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -753,20 +718,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.3125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5234375" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" s="3" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -774,7 +739,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -782,7 +747,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -790,7 +755,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -798,7 +763,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -806,7 +771,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -820,26 +785,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.7890625" customWidth="1"/>
-    <col min="2" max="2" width="26.3671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="64.83984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.3125" customWidth="1"/>
-    <col min="5" max="5" width="11.68359375" customWidth="1"/>
-    <col min="6" max="6" width="13.1015625" customWidth="1"/>
-    <col min="7" max="7" width="10.1015625" customWidth="1"/>
-    <col min="8" max="8" width="14.41796875" customWidth="1"/>
+    <col min="1" max="1" width="3.85546875" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="64.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -865,7 +830,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -891,7 +856,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -917,7 +882,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -943,7 +908,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -969,7 +934,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -995,7 +960,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1021,7 +986,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1047,7 +1012,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1080,30 +1045,30 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7890625" customWidth="1"/>
-    <col min="2" max="2" width="6.20703125" customWidth="1"/>
-    <col min="3" max="3" width="34.05078125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="2" max="2" width="6.140625" customWidth="1"/>
+    <col min="3" max="3" width="34" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.89453125" customWidth="1"/>
-    <col min="6" max="6" width="9.20703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7890625" customWidth="1"/>
-    <col min="8" max="8" width="8.3125" customWidth="1"/>
-    <col min="9" max="9" width="7.89453125" customWidth="1"/>
-    <col min="10" max="10" width="9.1015625" customWidth="1"/>
-    <col min="11" max="11" width="7.20703125" customWidth="1"/>
-    <col min="12" max="12" width="15.20703125" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" customWidth="1"/>
+    <col min="9" max="9" width="7.85546875" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" customWidth="1"/>
+    <col min="11" max="11" width="7.140625" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:12" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1141,7 +1106,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1.1000000000000001</v>
       </c>
@@ -1176,7 +1141,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="57.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:12" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1.2</v>
       </c>
@@ -1211,7 +1176,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1.3</v>
       </c>
@@ -1246,7 +1211,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2.1</v>
       </c>
@@ -1281,7 +1246,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2.2000000000000002</v>
       </c>
@@ -1316,7 +1281,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3.1</v>
       </c>
@@ -1351,7 +1316,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3.2</v>
       </c>
@@ -1386,7 +1351,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3.3</v>
       </c>
@@ -1421,7 +1386,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4.0999999999999996</v>
       </c>
@@ -1456,7 +1421,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>4.2</v>
       </c>
@@ -1491,7 +1456,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>4.3</v>
       </c>
@@ -1526,7 +1491,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>5.0999999999999996</v>
       </c>
@@ -1561,7 +1526,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>5.2</v>
       </c>
@@ -1596,7 +1561,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>99</v>
       </c>
@@ -1631,7 +1596,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>6.1</v>
       </c>
@@ -1660,13 +1625,13 @@
         <v>6</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>6.2</v>
       </c>
@@ -1695,13 +1660,13 @@
         <v>3</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>6.3</v>
       </c>
@@ -1730,13 +1695,13 @@
         <v>6</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>6.4</v>
       </c>
@@ -1765,13 +1730,13 @@
         <v>6</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>6.5</v>
       </c>
@@ -1800,13 +1765,13 @@
         <v>3</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L22" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>6.6</v>
       </c>
@@ -1835,13 +1800,13 @@
         <v>2</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L23" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>6.7</v>
       </c>
@@ -1870,10 +1835,10 @@
         <v>4</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L24" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1882,21 +1847,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.1015625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.68359375" customWidth="1"/>
-    <col min="4" max="4" width="14.3125" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" s="5" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>18</v>
       </c>
@@ -1910,7 +1875,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1922,7 +1887,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
